--- a/REGULAR/ACCOUNTING/TULIAO, FLORDELIZA M..xlsx
+++ b/REGULAR/ACCOUNTING/TULIAO, FLORDELIZA M..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B01C291-C398-4294-836D-0D78EA94F632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="508">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1565,7 +1564,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2482,7 +2481,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2524,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2588,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,7 +2648,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2714,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2777,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2875,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2935,7 +2934,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3000,7 +2999,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3042,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3118,7 +3117,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,7 +3303,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3370,7 +3369,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3428,7 +3427,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3494,7 +3493,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3550,7 +3549,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3624,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3668,7 +3667,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3733,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,7 +3789,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3888,7 +3887,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3951,7 +3950,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4000,7 +3999,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4017,26 +4016,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K730" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K730" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K730" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K730"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4048,13 +4047,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4063,14 +4062,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4374,7 +4373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4384,7 +4383,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4392,34 +4391,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K730"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A707" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A713" activePane="bottomLeft"/>
       <selection activeCell="D6" sqref="D6"/>
-      <selection pane="bottomLeft" activeCell="E714" sqref="E714"/>
+      <selection pane="bottomLeft" activeCell="K728" sqref="K728"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4442,7 +4441,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4462,7 +4461,7 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4484,7 +4483,7 @@
       <c r="J4" s="71"/>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4492,7 +4491,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4505,7 +4504,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="65" t="s">
@@ -4522,7 +4521,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4566,7 +4565,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.5479999999998348</v>
+        <v>2.7979999999998348</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4576,12 +4575,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.0289999999999999</v>
+        <v>4.2789999999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -4603,7 +4602,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35796</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>46</v>
@@ -4647,7 +4646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>50</v>
@@ -4669,7 +4668,7 @@
         <v>35797</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>49</v>
@@ -4691,7 +4690,7 @@
         <v>35804</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f>EDATE(A11,1)</f>
         <v>35827</v>
@@ -4720,7 +4719,7 @@
         <v>35829</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>52</v>
@@ -4742,7 +4741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -4759,7 +4758,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f>EDATE(A15,1)</f>
         <v>35855</v>
@@ -4786,7 +4785,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -4803,7 +4802,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A18,1)</f>
         <v>35886</v>
@@ -4828,7 +4827,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>59</v>
@@ -4847,7 +4846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f>EDATE(A20,1)</f>
         <v>35916</v>
@@ -4872,7 +4871,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>63</v>
@@ -4891,7 +4890,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>64</v>
@@ -4908,7 +4907,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f>EDATE(A22,1)</f>
         <v>35947</v>
@@ -4935,7 +4934,7 @@
         <v>35947</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="15" t="s">
         <v>49</v>
@@ -4954,7 +4953,7 @@
         <v>35961</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="15" t="s">
         <v>49</v>
@@ -4973,7 +4972,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>63</v>
@@ -4992,7 +4991,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>66</v>
@@ -5009,7 +5008,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="49"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A25,1)</f>
         <v>35977</v>
@@ -5036,7 +5035,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>63</v>
@@ -5055,7 +5054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>49</v>
@@ -5074,7 +5073,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>68</v>
@@ -5091,7 +5090,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f>EDATE(A30,1)</f>
         <v>36008</v>
@@ -5118,7 +5117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>72</v>
@@ -5139,7 +5138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>73</v>
@@ -5158,7 +5157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>74</v>
@@ -5175,7 +5174,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f>EDATE(A34,1)</f>
         <v>36039</v>
@@ -5202,7 +5201,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -5221,7 +5220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>76</v>
@@ -5238,7 +5237,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f>EDATE(A38,1)</f>
         <v>36069</v>
@@ -5265,7 +5264,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>72</v>
@@ -5284,7 +5283,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>79</v>
@@ -5301,7 +5300,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f>EDATE(A41,1)</f>
         <v>36100</v>
@@ -5328,7 +5327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>82</v>
@@ -5345,7 +5344,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" ref="A46" si="0">EDATE(A44,1)</f>
         <v>36130</v>
@@ -5372,7 +5371,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>63</v>
@@ -5394,7 +5393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>72</v>
@@ -5416,7 +5415,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>85</v>
       </c>
@@ -5434,7 +5433,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f>EDATE(A46,1)</f>
         <v>36161</v>
@@ -5461,7 +5460,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>72</v>
@@ -5480,7 +5479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>87</v>
@@ -5497,7 +5496,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A50,1)</f>
         <v>36192</v>
@@ -5524,7 +5523,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>46</v>
@@ -5541,7 +5540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>46</v>
@@ -5558,7 +5557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>72</v>
@@ -5577,7 +5576,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>91</v>
@@ -5594,7 +5593,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A53,1)</f>
         <v>36220</v>
@@ -5621,7 +5620,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>49</v>
@@ -5640,7 +5639,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>50</v>
@@ -5657,7 +5656,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>49</v>
@@ -5676,7 +5675,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>92</v>
@@ -5693,7 +5692,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A58,1)</f>
         <v>36251</v>
@@ -5718,7 +5717,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>63</v>
@@ -5737,7 +5736,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>49</v>
@@ -5756,7 +5755,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A63,1)</f>
         <v>36281</v>
@@ -5783,7 +5782,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>49</v>
@@ -5802,7 +5801,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>49</v>
@@ -5821,7 +5820,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>51</v>
@@ -5840,7 +5839,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>148</v>
@@ -5857,7 +5856,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f>EDATE(A66,1)</f>
         <v>36312</v>
@@ -5884,7 +5883,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>49</v>
@@ -5903,7 +5902,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>49</v>
@@ -5922,7 +5921,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>95</v>
@@ -5939,7 +5938,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A71,1)</f>
         <v>36342</v>
@@ -5966,7 +5965,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>49</v>
@@ -5985,7 +5984,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>72</v>
@@ -6004,7 +6003,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>36373</v>
@@ -6031,7 +6030,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>99</v>
@@ -6048,7 +6047,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36404</v>
@@ -6077,7 +6076,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>49</v>
@@ -6096,7 +6095,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>49</v>
@@ -6115,7 +6114,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>72</v>
@@ -6134,7 +6133,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>49</v>
@@ -6153,7 +6152,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>72</v>
@@ -6172,7 +6171,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>49</v>
@@ -6191,7 +6190,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>102</v>
@@ -6208,7 +6207,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A80,1)</f>
         <v>36434</v>
@@ -6235,7 +6234,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>50</v>
@@ -6254,7 +6253,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>49</v>
@@ -6273,7 +6272,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>74</v>
@@ -6290,7 +6289,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f>EDATE(A88,1)</f>
         <v>36465</v>
@@ -6319,7 +6318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>51</v>
@@ -6338,7 +6337,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>105</v>
@@ -6355,7 +6354,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" ref="A95" si="1">EDATE(A92,1)</f>
         <v>36495</v>
@@ -6382,7 +6381,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>50</v>
@@ -6401,7 +6400,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>103</v>
@@ -6422,7 +6421,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>108</v>
@@ -6441,7 +6440,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>49</v>
@@ -6460,7 +6459,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>109</v>
@@ -6477,7 +6476,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="48" t="s">
         <v>98</v>
       </c>
@@ -6495,7 +6494,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A95,1)</f>
         <v>36526</v>
@@ -6522,7 +6521,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>51</v>
@@ -6543,7 +6542,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>110</v>
@@ -6563,7 +6562,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A102,1)</f>
         <v>36557</v>
@@ -6588,7 +6587,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>63</v>
@@ -6607,7 +6606,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A105,1)</f>
         <v>36586</v>
@@ -6634,7 +6633,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>49</v>
@@ -6653,7 +6652,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>49</v>
@@ -6672,7 +6671,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>49</v>
@@ -6691,7 +6690,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>114</v>
@@ -6708,7 +6707,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="49"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A107,1)</f>
         <v>36617</v>
@@ -6735,7 +6734,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>49</v>
@@ -6754,7 +6753,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>49</v>
@@ -6771,7 +6770,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A112,1)</f>
         <v>36647</v>
@@ -6800,7 +6799,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>46</v>
@@ -6817,7 +6816,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>116</v>
@@ -6834,7 +6833,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="49"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>72</v>
@@ -6853,7 +6852,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A115,1)</f>
         <v>36678</v>
@@ -6878,7 +6877,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>49</v>
@@ -6897,7 +6896,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>63</v>
@@ -6919,7 +6918,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>52</v>
@@ -6938,7 +6937,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A119,1)</f>
         <v>36708</v>
@@ -6963,7 +6962,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>55</v>
@@ -6982,7 +6981,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f>EDATE(A123,1)</f>
         <v>36739</v>
@@ -7007,7 +7006,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>49</v>
@@ -7026,7 +7025,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f>EDATE(A125,1)</f>
         <v>36770</v>
@@ -7051,7 +7050,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>49</v>
@@ -7070,7 +7069,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>49</v>
@@ -7089,7 +7088,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A127,1)</f>
         <v>36800</v>
@@ -7116,7 +7115,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>63</v>
@@ -7135,7 +7134,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>49</v>
@@ -7154,7 +7153,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>128</v>
@@ -7171,7 +7170,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" ref="A134" si="2">EDATE(A130,1)</f>
         <v>36831</v>
@@ -7198,7 +7197,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>51</v>
@@ -7219,7 +7218,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>49</v>
@@ -7238,7 +7237,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>129</v>
@@ -7255,7 +7254,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A134,1)</f>
         <v>36861</v>
@@ -7280,7 +7279,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>72</v>
@@ -7302,7 +7301,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>132</v>
       </c>
@@ -7320,7 +7319,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f>EDATE(A138,1)</f>
         <v>36892</v>
@@ -7349,7 +7348,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>46</v>
@@ -7366,7 +7365,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -7383,7 +7382,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A141,1)</f>
         <v>36923</v>
@@ -7412,7 +7411,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>51</v>
@@ -7433,7 +7432,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>108</v>
@@ -7452,7 +7451,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>51</v>
@@ -7471,7 +7470,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A144,1)</f>
         <v>36951</v>
@@ -7498,7 +7497,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>51</v>
@@ -7519,7 +7518,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>103</v>
@@ -7538,7 +7537,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A148,1)</f>
         <v>36982</v>
@@ -7559,7 +7558,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" ref="A152" si="3">EDATE(A151,1)</f>
         <v>37012</v>
@@ -7586,7 +7585,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>49</v>
@@ -7605,7 +7604,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A152,1)</f>
         <v>37043</v>
@@ -7632,7 +7631,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>51</v>
@@ -7653,7 +7652,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>37073</v>
@@ -7682,7 +7681,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>51</v>
@@ -7701,7 +7700,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>49</v>
@@ -7720,7 +7719,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>37104</v>
@@ -7747,7 +7746,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>50</v>
@@ -7764,7 +7763,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>37135</v>
@@ -7791,7 +7790,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -7812,7 +7811,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>50</v>
@@ -7831,7 +7830,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f>EDATE(A161,1)</f>
         <v>37165</v>
@@ -7858,7 +7857,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>51</v>
@@ -7879,7 +7878,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>140</v>
@@ -7896,7 +7895,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f>EDATE(A164,1)</f>
         <v>37196</v>
@@ -7923,7 +7922,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>49</v>
@@ -7942,7 +7941,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>51</v>
@@ -7963,7 +7962,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>87</v>
@@ -7980,7 +7979,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A167,1)</f>
         <v>37226</v>
@@ -8007,7 +8006,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>49</v>
@@ -8026,7 +8025,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>51</v>
@@ -8047,7 +8046,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>141</v>
@@ -8064,7 +8063,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="48" t="s">
         <v>133</v>
       </c>
@@ -8082,7 +8081,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A171,1)</f>
         <v>37257</v>
@@ -8107,7 +8106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>51</v>
@@ -8126,7 +8125,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>51</v>
@@ -8145,7 +8144,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f>EDATE(A176,1)</f>
         <v>37288</v>
@@ -8174,7 +8173,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>46</v>
@@ -8191,7 +8190,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A179,1)</f>
         <v>37316</v>
@@ -8218,7 +8217,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f>EDATE(A181,1)</f>
         <v>37347</v>
@@ -8247,7 +8246,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>51</v>
@@ -8266,7 +8265,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>73</v>
@@ -8285,7 +8284,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>147</v>
@@ -8302,7 +8301,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A182,1)</f>
         <v>37377</v>
@@ -8326,7 +8325,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -8347,7 +8346,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>149</v>
@@ -8364,7 +8363,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="49"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f>EDATE(A186,1)</f>
         <v>37408</v>
@@ -8391,7 +8390,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>108</v>
@@ -8412,7 +8411,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>151</v>
@@ -8429,7 +8428,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A189,1)</f>
         <v>37438</v>
@@ -8454,7 +8453,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A192,1)</f>
         <v>37469</v>
@@ -8481,7 +8480,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>153</v>
@@ -8498,7 +8497,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>37500</v>
@@ -8525,7 +8524,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>49</v>
@@ -8544,7 +8543,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f>EDATE(A195,1)</f>
         <v>37530</v>
@@ -8571,7 +8570,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>51</v>
@@ -8590,7 +8589,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>155</v>
@@ -8607,7 +8606,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" ref="A200" si="4">EDATE(A197,1)</f>
         <v>37561</v>
@@ -8636,7 +8635,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>157</v>
@@ -8653,7 +8652,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f>EDATE(A200,1)</f>
         <v>37591</v>
@@ -8680,7 +8679,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>158</v>
@@ -8697,7 +8696,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="49"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="48" t="s">
         <v>142</v>
       </c>
@@ -8715,7 +8714,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>37622</v>
@@ -8740,7 +8739,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>50</v>
@@ -8759,7 +8758,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>46</v>
@@ -8776,7 +8775,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>49</v>
@@ -8795,7 +8794,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>51</v>
@@ -8816,7 +8815,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>51</v>
@@ -8835,7 +8834,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>51</v>
@@ -8852,7 +8851,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>103</v>
@@ -8871,7 +8870,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>162</v>
@@ -8888,7 +8887,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f>EDATE(A205,1)</f>
         <v>37653</v>
@@ -8913,7 +8912,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" ref="A215:A228" si="5">EDATE(A214,1)</f>
         <v>37681</v>
@@ -8940,7 +8939,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>103</v>
@@ -8961,7 +8960,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A215,1)</f>
         <v>37712</v>
@@ -8988,7 +8987,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>72</v>
@@ -9007,7 +9006,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>166</v>
@@ -9024,7 +9023,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>37742</v>
@@ -9051,7 +9050,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>51</v>
@@ -9072,7 +9071,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>167</v>
@@ -9089,7 +9088,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="49"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f>EDATE(A220,1)</f>
         <v>37773</v>
@@ -9114,7 +9113,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="5"/>
         <v>37803</v>
@@ -9139,7 +9138,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>72</v>
@@ -9158,7 +9157,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>63</v>
@@ -9177,7 +9176,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f>EDATE(A224,1)</f>
         <v>37834</v>
@@ -9202,7 +9201,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="5"/>
         <v>37865</v>
@@ -9231,7 +9230,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>51</v>
@@ -9250,7 +9249,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>51</v>
@@ -9271,7 +9270,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>51</v>
@@ -9290,7 +9289,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>173</v>
@@ -9307,7 +9306,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <f>EDATE(A228,1)</f>
         <v>37895</v>
@@ -9336,7 +9335,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>174</v>
@@ -9353,7 +9352,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>37926</v>
@@ -9378,7 +9377,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A235,1)</f>
         <v>37956</v>
@@ -9405,7 +9404,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>49</v>
@@ -9427,7 +9426,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>176</v>
@@ -9447,7 +9446,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
         <v>177</v>
       </c>
@@ -9465,7 +9464,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>37987</v>
@@ -9492,7 +9491,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>108</v>
@@ -9515,7 +9514,7 @@
         <v>41651</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>179</v>
@@ -9532,7 +9531,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>180</v>
@@ -9549,7 +9548,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="49"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f>EDATE(A240,1)</f>
         <v>38018</v>
@@ -9574,7 +9573,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>59</v>
@@ -9593,7 +9592,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f>EDATE(A244,1)</f>
         <v>38047</v>
@@ -9618,7 +9617,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>187</v>
@@ -9637,7 +9636,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <f>EDATE(A246,1)</f>
         <v>38078</v>
@@ -9662,7 +9661,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>59</v>
@@ -9681,7 +9680,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A248,1)</f>
         <v>38108</v>
@@ -9706,7 +9705,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f>EDATE(A250,1)</f>
         <v>38139</v>
@@ -9733,7 +9732,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>49</v>
@@ -9752,7 +9751,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>63</v>
@@ -9771,7 +9770,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>63</v>
@@ -9790,7 +9789,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>72</v>
@@ -9809,7 +9808,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>192</v>
@@ -9826,7 +9825,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f>EDATE(A251,1)</f>
         <v>38169</v>
@@ -9847,7 +9846,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" ref="A258:A260" si="6">EDATE(A257,1)</f>
         <v>38200</v>
@@ -9872,7 +9871,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -9897,7 +9896,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="6"/>
         <v>38261</v>
@@ -9924,7 +9923,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -9943,7 +9942,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>195</v>
@@ -9960,7 +9959,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <f>EDATE(A260,1)</f>
         <v>38292</v>
@@ -9985,7 +9984,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>38322</v>
@@ -10012,7 +10011,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>199</v>
@@ -10032,7 +10031,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="48" t="s">
         <v>200</v>
       </c>
@@ -10050,7 +10049,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>38353</v>
@@ -10077,7 +10076,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>112</v>
@@ -10094,7 +10093,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>46</v>
@@ -10111,7 +10110,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>203</v>
@@ -10128,7 +10127,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f>EDATE(A267,1)</f>
         <v>38384</v>
@@ -10153,7 +10152,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A283" si="7">EDATE(A271,1)</f>
         <v>38412</v>
@@ -10178,7 +10177,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -10203,7 +10202,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="7"/>
         <v>38473</v>
@@ -10228,7 +10227,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -10253,7 +10252,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -10278,7 +10277,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -10303,7 +10302,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>52</v>
@@ -10322,7 +10321,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>38596</v>
@@ -10349,7 +10348,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>211</v>
@@ -10366,7 +10365,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>72</v>
@@ -10385,7 +10384,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A279,1)</f>
         <v>38626</v>
@@ -10410,7 +10409,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="7"/>
         <v>38657</v>
@@ -10437,7 +10436,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>213</v>
@@ -10454,7 +10453,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="49"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f>EDATE(A283,1)</f>
         <v>38687</v>
@@ -10479,7 +10478,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="48" t="s">
         <v>216</v>
       </c>
@@ -10497,7 +10496,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>38718</v>
@@ -10524,7 +10523,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>179</v>
@@ -10541,7 +10540,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>49</v>
@@ -10560,7 +10559,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>219</v>
@@ -10577,7 +10576,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="49"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A287,1)</f>
         <v>38749</v>
@@ -10604,7 +10603,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>220</v>
@@ -10621,7 +10620,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="49"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A291,1)</f>
         <v>38777</v>
@@ -10648,7 +10647,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>72</v>
@@ -10667,7 +10666,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>222</v>
@@ -10684,7 +10683,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>63</v>
@@ -10703,7 +10702,7 @@
         <v>41009</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>72</v>
@@ -10724,7 +10723,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f>EDATE(A293,1)</f>
         <v>38808</v>
@@ -10751,7 +10750,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>224</v>
@@ -10768,7 +10767,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A298,1)</f>
         <v>38838</v>
@@ -10797,7 +10796,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>226</v>
@@ -10814,7 +10813,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>227</v>
@@ -10831,7 +10830,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A300,1)</f>
         <v>38869</v>
@@ -10856,7 +10855,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" ref="A304:A309" si="8">EDATE(A303,1)</f>
         <v>38899</v>
@@ -10883,7 +10882,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>230</v>
@@ -10900,7 +10899,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>38930</v>
@@ -10925,7 +10924,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -10950,7 +10949,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="8"/>
         <v>38991</v>
@@ -10975,7 +10974,7 @@
       <c r="J308" s="12"/>
       <c r="K308" s="15"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="8"/>
         <v>39022</v>
@@ -11000,7 +10999,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A309,1)</f>
         <v>39052</v>
@@ -11025,7 +11024,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="48" t="s">
         <v>217</v>
       </c>
@@ -11043,7 +11042,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>39083</v>
@@ -11070,7 +11069,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>49</v>
@@ -11092,7 +11091,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>46</v>
@@ -11112,7 +11111,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>237</v>
@@ -11132,7 +11131,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A312,1)</f>
         <v>39114</v>
@@ -11157,7 +11156,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" ref="A317:A336" si="9">EDATE(A316,1)</f>
         <v>39142</v>
@@ -11182,7 +11181,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>49</v>
@@ -11204,7 +11203,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -11224,7 +11223,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>72</v>
@@ -11246,7 +11245,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>241</v>
@@ -11263,7 +11262,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A317,1)</f>
         <v>39173</v>
@@ -11290,7 +11289,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>51</v>
@@ -11311,7 +11310,7 @@
         <v>11414</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>243</v>
@@ -11328,7 +11327,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>39203</v>
@@ -11353,7 +11352,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="9"/>
         <v>39234</v>
@@ -11378,7 +11377,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>103</v>
@@ -11399,7 +11398,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>246</v>
@@ -11416,7 +11415,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A326,1)</f>
         <v>39264</v>
@@ -11441,7 +11440,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -11460,7 +11459,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>39295</v>
@@ -11487,7 +11486,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>248</v>
@@ -11504,7 +11503,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="49"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>39326</v>
@@ -11529,7 +11528,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="9"/>
         <v>39356</v>
@@ -11554,7 +11553,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A334,1)</f>
         <v>39387</v>
@@ -11579,7 +11578,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <f t="shared" si="9"/>
         <v>39417</v>
@@ -11604,7 +11603,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>253</v>
       </c>
@@ -11622,7 +11621,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>39448</v>
@@ -11647,7 +11646,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f>EDATE(A338,1)</f>
         <v>39479</v>
@@ -11672,7 +11671,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>257</v>
@@ -11689,7 +11688,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>39508</v>
@@ -11714,7 +11713,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" ref="A342:A356" si="10">EDATE(A341,1)</f>
         <v>39539</v>
@@ -11739,7 +11738,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="10"/>
         <v>39569</v>
@@ -11766,7 +11765,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>72</v>
@@ -11785,7 +11784,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>63</v>
@@ -11804,7 +11803,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>263</v>
@@ -11821,7 +11820,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f>EDATE(A343,1)</f>
         <v>39600</v>
@@ -11848,7 +11847,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>49</v>
@@ -11867,7 +11866,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>265</v>
@@ -11884,7 +11883,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <f>EDATE(A347,1)</f>
         <v>39630</v>
@@ -11909,7 +11908,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>266</v>
@@ -11926,7 +11925,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f>EDATE(A350,1)</f>
         <v>39661</v>
@@ -11951,7 +11950,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>268</v>
@@ -11968,7 +11967,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>39692</v>
@@ -11993,7 +11992,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" si="10"/>
         <v>39722</v>
@@ -12018,7 +12017,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="10"/>
         <v>39753</v>
@@ -12045,7 +12044,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>49</v>
@@ -12064,7 +12063,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>72</v>
@@ -12083,7 +12082,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>72</v>
@@ -12102,7 +12101,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>272</v>
@@ -12119,7 +12118,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A356,1)</f>
         <v>39783</v>
@@ -12144,7 +12143,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="48" t="s">
         <v>254</v>
       </c>
@@ -12162,7 +12161,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>39814</v>
@@ -12189,7 +12188,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>46</v>
@@ -12206,7 +12205,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>275</v>
@@ -12223,7 +12222,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A363,1)</f>
         <v>39845</v>
@@ -12250,7 +12249,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>49</v>
@@ -12269,7 +12268,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>46</v>
@@ -12286,7 +12285,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>277</v>
@@ -12303,7 +12302,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A366,1)</f>
         <v>39873</v>
@@ -12328,7 +12327,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" ref="A371:A390" si="11">EDATE(A370,1)</f>
         <v>39904</v>
@@ -12355,7 +12354,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>49</v>
@@ -12374,7 +12373,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>280</v>
@@ -12391,7 +12390,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A371,1)</f>
         <v>39934</v>
@@ -12416,7 +12415,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>281</v>
@@ -12433,7 +12432,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>39965</v>
@@ -12460,7 +12459,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>72</v>
@@ -12479,7 +12478,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>284</v>
@@ -12496,7 +12495,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A376,1)</f>
         <v>39995</v>
@@ -12521,7 +12520,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="11"/>
         <v>40026</v>
@@ -12546,7 +12545,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="11"/>
         <v>40057</v>
@@ -12573,7 +12572,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>287</v>
@@ -12590,7 +12589,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f>EDATE(A381,1)</f>
         <v>40087</v>
@@ -12617,7 +12616,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>49</v>
@@ -12636,7 +12635,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>49</v>
@@ -12655,7 +12654,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>103</v>
@@ -12676,7 +12675,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>46</v>
@@ -12693,7 +12692,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>289</v>
@@ -12710,7 +12709,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A383,1)</f>
         <v>40118</v>
@@ -12735,7 +12734,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="11"/>
         <v>40148</v>
@@ -12764,7 +12763,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>293</v>
@@ -12781,7 +12780,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="48" t="s">
         <v>274</v>
       </c>
@@ -12799,7 +12798,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A390,1)</f>
         <v>40179</v>
@@ -12824,7 +12823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>295</v>
@@ -12841,7 +12840,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>40210</v>
@@ -12868,7 +12867,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>49</v>
@@ -12890,7 +12889,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>46</v>
@@ -12907,7 +12906,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>111</v>
@@ -12924,7 +12923,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f>EDATE(A395,1)</f>
         <v>40238</v>
@@ -12951,7 +12950,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>72</v>
@@ -12970,7 +12969,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>297</v>
@@ -12987,7 +12986,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A399,1)</f>
         <v>40269</v>
@@ -13012,7 +13011,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" ref="A403:A410" si="12">EDATE(A402,1)</f>
         <v>40299</v>
@@ -13037,7 +13036,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>49</v>
@@ -13056,7 +13055,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>40330</v>
@@ -13081,7 +13080,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" si="12"/>
         <v>40360</v>
@@ -13106,7 +13105,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="12"/>
         <v>40391</v>
@@ -13133,7 +13132,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>302</v>
@@ -13150,7 +13149,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>40422</v>
@@ -13175,7 +13174,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="12"/>
         <v>40452</v>
@@ -13200,7 +13199,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A410,1)</f>
         <v>40483</v>
@@ -13227,7 +13226,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>49</v>
@@ -13246,7 +13245,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20" t="s">
         <v>49</v>
@@ -13265,7 +13264,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>305</v>
@@ -13282,7 +13281,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f>EDATE(A411,1)</f>
         <v>40513</v>
@@ -13309,7 +13308,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>307</v>
@@ -13329,7 +13328,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="48" t="s">
         <v>308</v>
       </c>
@@ -13347,7 +13346,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>40544</v>
@@ -13374,7 +13373,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>310</v>
@@ -13391,7 +13390,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f>EDATE(A418,1)</f>
         <v>40575</v>
@@ -13416,7 +13415,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" ref="A421:A435" si="13">EDATE(A420,1)</f>
         <v>40603</v>
@@ -13441,7 +13440,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>49</v>
@@ -13460,7 +13459,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>72</v>
@@ -13479,7 +13478,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>312</v>
@@ -13496,7 +13495,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A421,1)</f>
         <v>40634</v>
@@ -13521,7 +13520,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="13"/>
         <v>40664</v>
@@ -13548,7 +13547,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>112</v>
@@ -13565,7 +13564,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>49</v>
@@ -13584,7 +13583,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>315</v>
@@ -13601,7 +13600,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>40695</v>
@@ -13626,7 +13625,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>49</v>
@@ -13648,7 +13647,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <f>EDATE(A430,1)</f>
         <v>40725</v>
@@ -13673,7 +13672,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>49</v>
@@ -13692,7 +13691,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f>EDATE(A432,1)</f>
         <v>40756</v>
@@ -13717,7 +13716,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" si="13"/>
         <v>40787</v>
@@ -13742,7 +13741,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>72</v>
@@ -13761,7 +13760,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <f>EDATE(A435,1)</f>
         <v>40817</v>
@@ -13786,7 +13785,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>49</v>
@@ -13805,7 +13804,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <f>EDATE(A437,1)</f>
         <v>40848</v>
@@ -13830,7 +13829,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f>EDATE(A439,1)</f>
         <v>40878</v>
@@ -13855,7 +13854,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>49</v>
@@ -13877,7 +13876,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="48" t="s">
         <v>309</v>
       </c>
@@ -13895,7 +13894,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f>EDATE(A440,1)</f>
         <v>40909</v>
@@ -13920,7 +13919,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f>EDATE(A443,1)</f>
         <v>40940</v>
@@ -13945,7 +13944,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f t="shared" ref="A445:A452" si="14">EDATE(A444,1)</f>
         <v>40969</v>
@@ -13970,7 +13969,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>46</v>
@@ -13987,7 +13986,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>327</v>
@@ -14004,7 +14003,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f>EDATE(A445,1)</f>
         <v>41000</v>
@@ -14029,7 +14028,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <f t="shared" si="14"/>
         <v>41030</v>
@@ -14054,7 +14053,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f t="shared" si="14"/>
         <v>41061</v>
@@ -14079,7 +14078,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f t="shared" si="14"/>
         <v>41091</v>
@@ -14104,7 +14103,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" si="14"/>
         <v>41122</v>
@@ -14129,7 +14128,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A452,1)</f>
         <v>41153</v>
@@ -14156,7 +14155,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>49</v>
@@ -14175,7 +14174,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>49</v>
@@ -14194,7 +14193,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>49</v>
@@ -14213,7 +14212,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>335</v>
@@ -14230,7 +14229,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f>EDATE(A453,1)</f>
         <v>41183</v>
@@ -14257,7 +14256,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>158</v>
@@ -14274,7 +14273,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f>EDATE(A458,1)</f>
         <v>41214</v>
@@ -14297,7 +14296,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>49</v>
@@ -14316,7 +14315,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>336</v>
@@ -14333,7 +14332,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>41244</v>
@@ -14358,7 +14357,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="48" t="s">
         <v>324</v>
       </c>
@@ -14376,7 +14375,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f>EDATE(A463,1)</f>
         <v>41275</v>
@@ -14401,7 +14400,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A465,1)</f>
         <v>41306</v>
@@ -14426,7 +14425,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" ref="A467" si="15">EDATE(A466,1)</f>
         <v>41334</v>
@@ -14453,7 +14452,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>49</v>
@@ -14472,7 +14471,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>46</v>
@@ -14489,7 +14488,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>312</v>
@@ -14506,7 +14505,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f>EDATE(A467,1)</f>
         <v>41365</v>
@@ -14531,7 +14530,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>231</v>
@@ -14548,7 +14547,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f>EDATE(A471,1)</f>
         <v>41395</v>
@@ -14573,7 +14572,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>49</v>
@@ -14592,7 +14591,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>49</v>
@@ -14611,7 +14610,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>72</v>
@@ -14630,7 +14629,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>344</v>
@@ -14649,7 +14648,7 @@
       </c>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <f>EDATE(A473,1)</f>
         <v>41426</v>
@@ -14676,7 +14675,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>49</v>
@@ -14695,7 +14694,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20" t="s">
         <v>49</v>
@@ -14714,7 +14713,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>348</v>
@@ -14731,7 +14730,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A478,1)</f>
         <v>41456</v>
@@ -14756,7 +14755,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f>EDATE(A482,1)</f>
         <v>41487</v>
@@ -14783,7 +14782,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="15" t="s">
         <v>72</v>
@@ -14802,7 +14801,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="15" t="s">
         <v>49</v>
@@ -14821,7 +14820,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="15" t="s">
         <v>49</v>
@@ -14840,7 +14839,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="15" t="s">
         <v>351</v>
@@ -14857,7 +14856,7 @@
       <c r="J487" s="12"/>
       <c r="K487" s="15"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <f>EDATE(A483,1)</f>
         <v>41518</v>
@@ -14884,7 +14883,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>55</v>
@@ -14903,7 +14902,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>355</v>
@@ -14920,7 +14919,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f>EDATE(A488,1)</f>
         <v>41548</v>
@@ -14947,7 +14946,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>243</v>
@@ -14964,7 +14963,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f>EDATE(A491,1)</f>
         <v>41579</v>
@@ -14989,7 +14988,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f>EDATE(A493,1)</f>
         <v>41609</v>
@@ -15016,7 +15015,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>49</v>
@@ -15038,7 +15037,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>72</v>
@@ -15060,7 +15059,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>358</v>
@@ -15080,7 +15079,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="48" t="s">
         <v>339</v>
       </c>
@@ -15098,7 +15097,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f>EDATE(A494,1)</f>
         <v>41640</v>
@@ -15125,7 +15124,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>112</v>
@@ -15142,7 +15141,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>361</v>
@@ -15159,7 +15158,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f>EDATE(A499,1)</f>
         <v>41671</v>
@@ -15186,7 +15185,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>46</v>
@@ -15203,7 +15202,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>363</v>
@@ -15220,7 +15219,7 @@
       <c r="J504" s="39"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A502,1)</f>
         <v>41699</v>
@@ -15247,7 +15246,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>364</v>
@@ -15264,7 +15263,7 @@
       <c r="J506" s="39"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>41730</v>
@@ -15289,7 +15288,7 @@
       <c r="J507" s="39"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f t="shared" ref="A508:A526" si="16">EDATE(A507,1)</f>
         <v>41760</v>
@@ -15316,7 +15315,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>49</v>
@@ -15335,7 +15334,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>72</v>
@@ -15354,7 +15353,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>49</v>
@@ -15373,7 +15372,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>49</v>
@@ -15392,7 +15391,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>49</v>
@@ -15411,7 +15410,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>368</v>
@@ -15428,7 +15427,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="49"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f>EDATE(A508,1)</f>
         <v>41791</v>
@@ -15455,7 +15454,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>51</v>
@@ -15476,7 +15475,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>63</v>
@@ -15495,7 +15494,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>367</v>
@@ -15512,7 +15511,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>72</v>
@@ -15533,7 +15532,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <f>EDATE(A515,1)</f>
         <v>41821</v>
@@ -15558,7 +15557,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A520,1)</f>
         <v>41852</v>
@@ -15587,7 +15586,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
         <v>50</v>
@@ -15606,7 +15605,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>372</v>
@@ -15623,7 +15622,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f>EDATE(A521,1)</f>
         <v>41883</v>
@@ -15648,7 +15647,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f t="shared" si="16"/>
         <v>41913</v>
@@ -15673,7 +15672,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f t="shared" si="16"/>
         <v>41944</v>
@@ -15704,7 +15703,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>50</v>
@@ -15723,7 +15722,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>103</v>
@@ -15742,7 +15741,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>376</v>
@@ -15759,7 +15758,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <f>EDATE(A526,1)</f>
         <v>41974</v>
@@ -15784,7 +15783,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="48" t="s">
         <v>360</v>
       </c>
@@ -15802,7 +15801,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f>EDATE(A530,1)</f>
         <v>42005</v>
@@ -15829,7 +15828,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>49</v>
@@ -15850,7 +15849,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>46</v>
@@ -15867,7 +15866,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>380</v>
@@ -15884,7 +15883,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <f>EDATE(A532,1)</f>
         <v>42036</v>
@@ -15909,7 +15908,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f t="shared" ref="A537:A561" si="17">EDATE(A536,1)</f>
         <v>42064</v>
@@ -15936,7 +15935,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20" t="s">
         <v>49</v>
@@ -15955,7 +15954,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>51</v>
@@ -15974,7 +15973,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>46</v>
@@ -15991,7 +15990,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>384</v>
@@ -16011,7 +16010,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f>EDATE(A537,1)</f>
         <v>42095</v>
@@ -16036,7 +16035,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <f>EDATE(A542,1)</f>
         <v>42125</v>
@@ -16063,7 +16062,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>49</v>
@@ -16082,7 +16081,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>388</v>
@@ -16099,7 +16098,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <f>EDATE(A543,1)</f>
         <v>42156</v>
@@ -16128,7 +16127,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>72</v>
@@ -16147,7 +16146,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20" t="s">
         <v>46</v>
@@ -16164,7 +16163,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
         <v>49</v>
@@ -16183,7 +16182,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
         <v>391</v>
@@ -16200,7 +16199,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="49"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <f>EDATE(A546,1)</f>
         <v>42186</v>
@@ -16227,7 +16226,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
         <v>392</v>
@@ -16244,7 +16243,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f>EDATE(A551,1)</f>
         <v>42217</v>
@@ -16273,7 +16272,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>72</v>
@@ -16292,7 +16291,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>393</v>
@@ -16309,7 +16308,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <f>EDATE(A553,1)</f>
         <v>42248</v>
@@ -16334,7 +16333,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f t="shared" si="17"/>
         <v>42278</v>
@@ -16361,7 +16360,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
         <v>49</v>
@@ -16380,7 +16379,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>397</v>
@@ -16397,7 +16396,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f>EDATE(A557,1)</f>
         <v>42309</v>
@@ -16422,7 +16421,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <f t="shared" si="17"/>
         <v>42339</v>
@@ -16447,7 +16446,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="48" t="s">
         <v>379</v>
       </c>
@@ -16465,7 +16464,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <f>EDATE(A561,1)</f>
         <v>42370</v>
@@ -16490,7 +16489,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f>EDATE(A563,1)</f>
         <v>42401</v>
@@ -16515,7 +16514,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f t="shared" ref="A565:A585" si="18">EDATE(A564,1)</f>
         <v>42430</v>
@@ -16540,7 +16539,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f t="shared" si="18"/>
         <v>42461</v>
@@ -16565,7 +16564,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
         <v>388</v>
@@ -16582,7 +16581,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <f>EDATE(A566,1)</f>
         <v>42491</v>
@@ -16609,7 +16608,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>49</v>
@@ -16628,7 +16627,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>406</v>
@@ -16645,7 +16644,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <f>EDATE(A568,1)</f>
         <v>42522</v>
@@ -16672,7 +16671,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20" t="s">
         <v>407</v>
@@ -16689,7 +16688,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <f>EDATE(A571,1)</f>
         <v>42552</v>
@@ -16716,7 +16715,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>72</v>
@@ -16735,7 +16734,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>416</v>
@@ -16752,7 +16751,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <f>EDATE(A573,1)</f>
         <v>42583</v>
@@ -16779,7 +16778,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>51</v>
@@ -16798,7 +16797,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>76</v>
@@ -16815,7 +16814,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <f>EDATE(A576,1)</f>
         <v>42614</v>
@@ -16840,7 +16839,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>46</v>
@@ -16857,7 +16856,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>108</v>
@@ -16878,7 +16877,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>408</v>
@@ -16895,7 +16894,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <f>EDATE(A579,1)</f>
         <v>42644</v>
@@ -16920,7 +16919,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <f t="shared" si="18"/>
         <v>42675</v>
@@ -16945,7 +16944,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <f t="shared" si="18"/>
         <v>42705</v>
@@ -16970,7 +16969,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="48" t="s">
         <v>401</v>
       </c>
@@ -16988,7 +16987,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <f>EDATE(A585,1)</f>
         <v>42736</v>
@@ -17013,7 +17012,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <f>EDATE(A587,1)</f>
         <v>42767</v>
@@ -17038,7 +17037,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>63</v>
@@ -17057,7 +17056,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <f>EDATE(A588,1)</f>
         <v>42795</v>
@@ -17084,7 +17083,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20" t="s">
         <v>49</v>
@@ -17103,7 +17102,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
         <v>421</v>
@@ -17120,7 +17119,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <f>EDATE(A590,1)</f>
         <v>42826</v>
@@ -17147,7 +17146,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
         <v>49</v>
@@ -17166,7 +17165,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20" t="s">
         <v>422</v>
@@ -17183,7 +17182,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <f>EDATE(A593,1)</f>
         <v>42856</v>
@@ -17210,7 +17209,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="15" t="s">
         <v>423</v>
@@ -17227,7 +17226,7 @@
       <c r="J597" s="12"/>
       <c r="K597" s="15"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <f>EDATE(A596,1)</f>
         <v>42887</v>
@@ -17256,7 +17255,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <f t="shared" ref="A599:A606" si="19">EDATE(A598,1)</f>
         <v>42917</v>
@@ -17283,7 +17282,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <f t="shared" si="19"/>
         <v>42948</v>
@@ -17310,7 +17309,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20" t="s">
         <v>426</v>
@@ -17327,7 +17326,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <f>EDATE(A600,1)</f>
         <v>42979</v>
@@ -17354,7 +17353,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20" t="s">
         <v>427</v>
@@ -17371,7 +17370,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <f>EDATE(A602,1)</f>
         <v>43009</v>
@@ -17396,7 +17395,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <f t="shared" si="19"/>
         <v>43040</v>
@@ -17417,7 +17416,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <f t="shared" si="19"/>
         <v>43070</v>
@@ -17444,7 +17443,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="48" t="s">
         <v>419</v>
       </c>
@@ -17462,7 +17461,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <f>EDATE(A606,1)</f>
         <v>43101</v>
@@ -17483,7 +17482,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <f>EDATE(A608,1)</f>
         <v>43132</v>
@@ -17508,7 +17507,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>112</v>
@@ -17525,7 +17524,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <f>EDATE(A609,1)</f>
         <v>43160</v>
@@ -17550,7 +17549,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>50</v>
@@ -17569,7 +17568,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <f>EDATE(A611,1)</f>
         <v>43191</v>
@@ -17590,7 +17589,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <f t="shared" ref="A614:A622" si="20">EDATE(A613,1)</f>
         <v>43221</v>
@@ -17617,7 +17616,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20" t="s">
         <v>72</v>
@@ -17636,7 +17635,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20" t="s">
         <v>49</v>
@@ -17655,7 +17654,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <f>EDATE(A614,1)</f>
         <v>43252</v>
@@ -17682,7 +17681,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20" t="s">
         <v>437</v>
@@ -17699,7 +17698,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <f>EDATE(A617,1)</f>
         <v>43282</v>
@@ -17726,7 +17725,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>438</v>
@@ -17743,7 +17742,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <f>EDATE(A619,1)</f>
         <v>43313</v>
@@ -17768,7 +17767,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <f t="shared" si="20"/>
         <v>43344</v>
@@ -17795,7 +17794,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20" t="s">
         <v>440</v>
@@ -17812,7 +17811,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <f>EDATE(A622,1)</f>
         <v>43374</v>
@@ -17835,7 +17834,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="57" t="s">
         <v>442</v>
@@ -17852,7 +17851,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="56"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <f>EDATE(A624,1)</f>
         <v>43405</v>
@@ -17877,7 +17876,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40">
         <f>EDATE(A626,1)</f>
         <v>43435</v>
@@ -17902,7 +17901,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="48" t="s">
         <v>433</v>
       </c>
@@ -17920,7 +17919,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <f>EDATE(A627,1)</f>
         <v>43466</v>
@@ -17941,7 +17940,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <f>EDATE(A629,1)</f>
         <v>43497</v>
@@ -17966,7 +17965,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <f t="shared" ref="A631:A645" si="21">EDATE(A630,1)</f>
         <v>43525</v>
@@ -17991,7 +17990,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <f t="shared" si="21"/>
         <v>43556</v>
@@ -18012,7 +18011,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40">
         <f>EDATE(A632,1)</f>
         <v>43586</v>
@@ -18037,7 +18036,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20" t="s">
         <v>72</v>
@@ -18059,7 +18058,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20" t="s">
         <v>450</v>
@@ -18079,7 +18078,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <f>EDATE(A633,1)</f>
         <v>43617</v>
@@ -18106,7 +18105,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <f t="shared" si="21"/>
         <v>43647</v>
@@ -18133,7 +18132,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20" t="s">
         <v>49</v>
@@ -18155,7 +18154,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <f>EDATE(A637,1)</f>
         <v>43678</v>
@@ -18182,7 +18181,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20" t="s">
         <v>49</v>
@@ -18204,7 +18203,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40">
         <f>EDATE(A639,1)</f>
         <v>43709</v>
@@ -18231,7 +18230,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>50</v>
@@ -18253,7 +18252,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <f>EDATE(A641,1)</f>
         <v>43739</v>
@@ -18274,7 +18273,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <f t="shared" si="21"/>
         <v>43770</v>
@@ -18295,7 +18294,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <f t="shared" si="21"/>
         <v>43800</v>
@@ -18316,7 +18315,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="48" t="s">
         <v>434</v>
       </c>
@@ -18334,7 +18333,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <f>EDATE(A645,1)</f>
         <v>43831</v>
@@ -18361,7 +18360,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20" t="s">
         <v>454</v>
@@ -18378,7 +18377,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20" t="s">
         <v>179</v>
@@ -18395,7 +18394,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20" t="s">
         <v>72</v>
@@ -18414,7 +18413,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <f>EDATE(A647,1)</f>
         <v>43862</v>
@@ -18435,7 +18434,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <f t="shared" ref="A652:A660" si="22">EDATE(A651,1)</f>
         <v>43891</v>
@@ -18456,7 +18455,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <f t="shared" si="22"/>
         <v>43922</v>
@@ -18477,7 +18476,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <f t="shared" si="22"/>
         <v>43952</v>
@@ -18498,7 +18497,7 @@
       <c r="J654" s="12"/>
       <c r="K654" s="15"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <f t="shared" si="22"/>
         <v>43983</v>
@@ -18519,7 +18518,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <f t="shared" si="22"/>
         <v>44013</v>
@@ -18540,7 +18539,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40">
         <f t="shared" si="22"/>
         <v>44044</v>
@@ -18561,7 +18560,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <f t="shared" si="22"/>
         <v>44075</v>
@@ -18582,7 +18581,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40">
         <f t="shared" si="22"/>
         <v>44105</v>
@@ -18603,7 +18602,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <f t="shared" si="22"/>
         <v>44136</v>
@@ -18630,7 +18629,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>49</v>
@@ -18649,7 +18648,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>49</v>
@@ -18668,7 +18667,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20" t="s">
         <v>49</v>
@@ -18687,7 +18686,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <f>EDATE(A660,1)</f>
         <v>44166</v>
@@ -18712,7 +18711,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="48" t="s">
         <v>453</v>
       </c>
@@ -18730,7 +18729,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <f>EDATE(A664,1)</f>
         <v>44197</v>
@@ -18755,7 +18754,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
         <f>EDATE(A666,1)</f>
         <v>44228</v>
@@ -18776,7 +18775,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
         <f t="shared" ref="A668:A675" si="23">EDATE(A667,1)</f>
         <v>44256</v>
@@ -18797,7 +18796,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <f t="shared" si="23"/>
         <v>44287</v>
@@ -18818,7 +18817,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40">
         <f t="shared" si="23"/>
         <v>44317</v>
@@ -18839,7 +18838,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <f t="shared" si="23"/>
         <v>44348</v>
@@ -18860,7 +18859,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
         <f t="shared" si="23"/>
         <v>44378</v>
@@ -18881,7 +18880,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <f t="shared" si="23"/>
         <v>44409</v>
@@ -18908,7 +18907,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
         <f t="shared" si="23"/>
         <v>44440</v>
@@ -18929,7 +18928,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <f t="shared" si="23"/>
         <v>44470</v>
@@ -18954,7 +18953,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20" t="s">
         <v>462</v>
@@ -18973,7 +18972,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>73</v>
@@ -18992,7 +18991,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <f>EDATE(A675,1)</f>
         <v>44501</v>
@@ -19019,7 +19018,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="58" t="s">
         <v>49</v>
@@ -19038,7 +19037,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <f>EDATE(A678,1)</f>
         <v>44531</v>
@@ -19065,7 +19064,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="48" t="s">
         <v>460</v>
       </c>
@@ -19083,7 +19082,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <f>EDATE(A680,1)</f>
         <v>44562</v>
@@ -19110,7 +19109,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="58" t="s">
         <v>72</v>
@@ -19129,7 +19128,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="58" t="s">
         <v>49</v>
@@ -19148,7 +19147,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <f>EDATE(A682,1)</f>
         <v>44593</v>
@@ -19173,7 +19172,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="58" t="s">
         <v>49</v>
@@ -19192,7 +19191,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <f>EDATE(A685,1)</f>
         <v>44621</v>
@@ -19219,7 +19218,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <f t="shared" ref="A688" si="24">EDATE(A687,1)</f>
         <v>44652</v>
@@ -19246,7 +19245,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="58" t="s">
         <v>50</v>
@@ -19265,7 +19264,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="58" t="s">
         <v>505</v>
@@ -19285,7 +19284,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="49"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <f>EDATE(A688,1)</f>
         <v>44682</v>
@@ -19312,7 +19311,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="58" t="s">
         <v>504</v>
@@ -19332,7 +19331,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <f>EDATE(A691,1)</f>
         <v>44713</v>
@@ -19359,7 +19358,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20" t="s">
         <v>50</v>
@@ -19378,7 +19377,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20" t="s">
         <v>49</v>
@@ -19397,7 +19396,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20" t="s">
         <v>49</v>
@@ -19416,7 +19415,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20" t="s">
         <v>49</v>
@@ -19435,7 +19434,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20" t="s">
         <v>49</v>
@@ -19454,7 +19453,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="58" t="s">
         <v>502</v>
@@ -19474,7 +19473,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="49"/>
     </row>
-    <row r="700" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <f>EDATE(A693,1)</f>
         <v>44743</v>
@@ -19501,7 +19500,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="58" t="s">
         <v>72</v>
@@ -19520,7 +19519,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="58" t="s">
         <v>49</v>
@@ -19539,7 +19538,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
         <f>EDATE(A700,1)</f>
         <v>44774</v>
@@ -19566,7 +19565,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="58" t="s">
         <v>501</v>
@@ -19586,7 +19585,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40">
         <f>EDATE(A703,1)</f>
         <v>44805</v>
@@ -19613,7 +19612,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="58" t="s">
         <v>72</v>
@@ -19632,7 +19631,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="58" t="s">
         <v>73</v>
@@ -19651,7 +19650,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="58" t="s">
         <v>118</v>
@@ -19671,7 +19670,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
         <f>EDATE(A705,1)</f>
         <v>44835</v>
@@ -19698,7 +19697,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="58" t="s">
         <v>497</v>
@@ -19718,7 +19717,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="52"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40">
         <v>44866</v>
       </c>
@@ -19742,7 +19741,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="10" t="s">
         <v>50</v>
@@ -19764,7 +19763,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="58" t="s">
         <v>496</v>
@@ -19784,7 +19783,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="52"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
         <v>44896</v>
       </c>
@@ -19810,7 +19809,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="48" t="s">
         <v>474</v>
       </c>
@@ -19828,7 +19827,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
         <v>44927</v>
       </c>
@@ -19852,7 +19851,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
         <v>44958</v>
       </c>
@@ -19872,7 +19871,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
         <v>44986</v>
       </c>
@@ -19892,7 +19891,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
         <v>45017</v>
       </c>
@@ -19912,7 +19911,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
         <v>45047</v>
       </c>
@@ -19936,7 +19935,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
         <v>45078</v>
       </c>
@@ -19962,7 +19961,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="58" t="s">
         <v>49</v>
@@ -19984,7 +19983,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
         <v>45108</v>
       </c>
@@ -20010,7 +20009,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
         <v>45139</v>
       </c>
@@ -20036,7 +20035,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="58" t="s">
         <v>72</v>
@@ -20058,20 +20057,22 @@
         <v>506</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="41">
         <v>45170</v>
       </c>
       <c r="B726" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C726" s="42"/>
+      <c r="C726" s="42">
+        <v>1.25</v>
+      </c>
       <c r="D726" s="43"/>
       <c r="E726" s="54"/>
       <c r="F726" s="15"/>
-      <c r="G726" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G726" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H726" s="43">
         <v>2</v>
@@ -20082,11 +20083,13 @@
         <v>507</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="41">
         <v>45200</v>
       </c>
-      <c r="B727" s="58"/>
+      <c r="B727" s="58" t="s">
+        <v>46</v>
+      </c>
       <c r="C727" s="13"/>
       <c r="D727" s="39"/>
       <c r="E727" s="9"/>
@@ -20098,13 +20101,17 @@
       <c r="H727" s="39"/>
       <c r="I727" s="9"/>
       <c r="J727" s="11"/>
-      <c r="K727" s="20"/>
-    </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K727" s="52">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="41">
         <v>45231</v>
       </c>
-      <c r="B728" s="58"/>
+      <c r="B728" s="58" t="s">
+        <v>46</v>
+      </c>
       <c r="C728" s="13"/>
       <c r="D728" s="39"/>
       <c r="E728" s="9"/>
@@ -20116,9 +20123,11 @@
       <c r="H728" s="39"/>
       <c r="I728" s="9"/>
       <c r="J728" s="11"/>
-      <c r="K728" s="20"/>
-    </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K728" s="52">
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="41">
         <v>45261</v>
       </c>
@@ -20136,7 +20145,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="41">
         <v>45292</v>
       </c>
@@ -20169,10 +20178,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20195,22 +20204,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
@@ -20227,7 +20236,7 @@
       </c>
       <c r="G1" s="73"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
@@ -20240,7 +20249,7 @@
       <c r="F2" s="74"/>
       <c r="G2" s="71"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>16</v>
       </c>
@@ -20255,7 +20264,7 @@
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="1"/>
       <c r="C4" s="30"/>
@@ -20264,7 +20273,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="8"/>
       <c r="C5" s="31"/>
@@ -20273,12 +20282,12 @@
       <c r="F5" s="8"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -20289,7 +20298,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
         <v>44806</v>
       </c>
@@ -20300,7 +20309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
         <v>44858</v>
       </c>
@@ -20311,7 +20320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="60">
         <v>44872</v>
       </c>
@@ -20322,7 +20331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>44872</v>
       </c>
@@ -20333,7 +20342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="60">
         <v>44881</v>
       </c>
@@ -20344,7 +20353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="60">
         <v>44965</v>
       </c>
@@ -20355,7 +20364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="60">
         <v>44965</v>
       </c>
@@ -20366,7 +20375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="60">
         <v>44971</v>
       </c>
@@ -20377,7 +20386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="60">
         <v>44993</v>
       </c>
@@ -20388,7 +20397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="60">
         <v>44993</v>
       </c>
@@ -20399,7 +20408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="60">
         <v>44993</v>
       </c>
@@ -20410,7 +20419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="60">
         <v>45034</v>
       </c>
@@ -20421,7 +20430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="60">
         <v>44896</v>
       </c>
@@ -20432,7 +20441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="60">
         <v>44866</v>
       </c>
@@ -20443,7 +20452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="60">
         <v>44835</v>
       </c>
@@ -20454,22 +20463,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
       <c r="B23" s="35"/>
       <c r="C23" s="61"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
       <c r="B24" s="35"/>
       <c r="C24" s="61"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
       <c r="B25" s="35"/>
       <c r="C25" s="61"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
       <c r="B26" s="59" t="s">
         <v>485</v>
@@ -20489,10 +20498,10 @@
     <mergeCell ref="F3:G3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:G1">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20501,7 +20510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -20509,21 +20518,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="75" t="s">
         <v>33</v>
       </c>
@@ -20536,7 +20545,7 @@
       <c r="K1" s="76"/>
       <c r="L1" s="76"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -20565,7 +20574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.52900000000000003</v>
       </c>
@@ -20595,17 +20604,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -20626,7 +20635,7 @@
       <c r="K6" s="76"/>
       <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -20653,7 +20662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -20679,7 +20688,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -20705,7 +20714,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -20731,7 +20740,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -20757,7 +20766,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -20783,7 +20792,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -20809,7 +20818,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -20835,7 +20844,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -20855,7 +20864,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -20875,7 +20884,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -20895,7 +20904,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -20916,7 +20925,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -20937,7 +20946,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -20958,7 +20967,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -20979,7 +20988,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -21000,7 +21009,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -21021,7 +21030,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -21042,7 +21051,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -21063,7 +21072,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -21084,7 +21093,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -21105,7 +21114,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -21126,7 +21135,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -21147,7 +21156,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -21168,7 +21177,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -21189,7 +21198,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -21210,7 +21219,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -21231,7 +21240,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -21252,7 +21261,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -21273,7 +21282,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -21294,7 +21303,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -21315,7 +21324,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -21324,7 +21333,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -21333,7 +21342,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -21342,7 +21351,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -21351,7 +21360,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -21360,7 +21369,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -21369,7 +21378,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -21378,7 +21387,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -21387,7 +21396,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -21396,7 +21405,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -21405,7 +21414,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -21414,7 +21423,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -21423,7 +21432,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -21432,7 +21441,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -21441,7 +21450,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -21450,7 +21459,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -21459,7 +21468,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -21468,7 +21477,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -21477,7 +21486,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -21486,7 +21495,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -21495,7 +21504,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -21504,7 +21513,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -21513,7 +21522,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -21522,7 +21531,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -21531,7 +21540,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -21540,7 +21549,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -21549,7 +21558,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -21558,7 +21567,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -21567,7 +21576,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -21576,7 +21585,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
